--- a/hpbattery.xlsx
+++ b/hpbattery.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED7BD0-8B09-4217-95C5-3F9B572C035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEBE9C7-41CC-4C57-9C99-864AB6605162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{E759E1F6-1C1B-4BE3-821A-721E9C2E8930}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
     <sheet name="Load" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Regulator" sheetId="4" r:id="rId4"/>
+    <sheet name="TP4056" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,15 +56,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Capacity</t>
   </si>
   <si>
     <t>Voltage</t>
-  </si>
-  <si>
-    <t>Current</t>
   </si>
   <si>
     <t>Current (0.)</t>
@@ -124,12 +121,6 @@
     <t>Vreg</t>
   </si>
   <si>
-    <t>Dropout Voltage</t>
-  </si>
-  <si>
-    <t>mV</t>
-  </si>
-  <si>
     <t>Vdo</t>
   </si>
   <si>
@@ -142,22 +133,43 @@
     <t>T(all digits)</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Vref</t>
-  </si>
-  <si>
-    <t>Vout</t>
-  </si>
-  <si>
     <t>kOhm</t>
   </si>
   <si>
     <t>Vdiode</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Charge (ideal)</t>
+  </si>
+  <si>
+    <t>Rprog (ideal)</t>
+  </si>
+  <si>
+    <t>Rprog (close)</t>
+  </si>
+  <si>
+    <t>Charge (real)</t>
+  </si>
+  <si>
+    <t>Itarget HP</t>
+  </si>
+  <si>
+    <t>Rprog (HP, ideal)</t>
+  </si>
+  <si>
+    <t>Rprog2(HP,ideal)</t>
+  </si>
+  <si>
+    <t>Rprog2(HP,close)</t>
+  </si>
+  <si>
+    <t>Rprog(HP,real)</t>
+  </si>
+  <si>
+    <t>Icharge HP</t>
   </si>
 </sst>
 </file>
@@ -201,9 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4328,6 +4341,1146 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-69F0-4A21-A58A-8D6B2C2289EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$3:$A$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$J$3:$J$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>85.11904761904762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.984514139158151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.373837915288703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.37573818279354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.70187656315828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.866585997472228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.86814887293356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.132640838200444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.135022720578647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.137404733184027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.536441123920824</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.541941637935523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.54744284326361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.552944740035414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.558447328381234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.563950608431568</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.569454580316801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.450229854967816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.454573100000673</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.458916771594403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.463260869811876</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.467605394715903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89.136088650069368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.14135970917873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.14663139173274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.151903697841959</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.157176627617062</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.162450181168694</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.167724358607586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.946232560637725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.951102502702511</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.955972972140572</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.960843969037612</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.965715493479266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.970587545551268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.657709771275719</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.662886450738654</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.668063721426321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90.673241583440017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.678420036881064</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.683599081850801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90.688778718450578</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90.693958946781777</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.385687297918921</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.392085542000103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91.398484682072635</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91.40488471832478</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.411285650944777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91.417687480120989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.42409020604174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.230803597666423</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92.236511053841426</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92.242219216441441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.247928085597593</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>92.253637661441061</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>92.259347944103126</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92.265058933714997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>92.270770630407995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>92.276483034313429</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>92.947380483314873</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92.95326802032335</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92.95915630324393</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92.965045332218352</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>92.97093510738847</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92.976825628896037</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>92.982716896883005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>92.988608911491227</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>92.994501672862668</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>93.632372557028376</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.638497198949963</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>93.644622642169054</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93.650748886842877</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93.656875933128788</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93.663003781184088</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>93.669132431166162</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93.675261883232466</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93.681392137540442</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>93.687523194247618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>94.289058004157908</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>94.294291710224215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94.299525997337796</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94.304760865595398</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>94.309996315093812</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>94.315232345929886</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94.320468958200408</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>94.325706152002269</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>94.330943927432301</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94.795992591012194</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>94.801849271015968</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.807706674738554</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.813564802314033</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94.819423653876669</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94.825283229560625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.831143529500167</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94.83700455382963</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94.842866302683277</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94.848728776195486</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.854591974500636</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95.307578536450293</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95.312814347578978</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>95.318050734007656</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>95.323287695831112</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>95.328525233144234</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95.335776464687711</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>95.341400090045411</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>95.347034373079865</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>95.352734063394323</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>95.358369981981923</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>95.364088826362575</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>95.369734126592746</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>95.706905176677978</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>95.713083018059848</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>95.719286102826786</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>95.725512008367943</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>95.731714185006979</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>95.737965748291771</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>95.744178822819194</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>95.750466396942841</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>95.756691282957789</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>95.763005977301972</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>96.074507437209817</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>96.08369522150187</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>96.092916155415054</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>96.102118836537571</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>96.111384988074619</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>96.120604172952426</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>96.12989543881659</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>96.139128578255523</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>96.148363491524577</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>96.522258159511637</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>96.537973889717065</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>96.553736593992596</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>96.569545352722415</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>96.58531171534537</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>96.601175031493852</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>96.616968303380077</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>96.632858598413065</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>96.648674420618434</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97.145419577434737</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97.168946463492148</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97.192469834044076</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97.216107655174383</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97.239681755284096</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97.26342662841617</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97.287051666251287</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97.84629413492307</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97.874412539194921</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97.902524341424993</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97.930871662419221</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97.959081019271082</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>98.484716431323605</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>98.484159202686399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>98.483597094805646</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>98.483031268142227</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>98.474973082501066</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>98.473959066097422</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>98.472945680599992</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>98.4719176167646</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>98.461762367827035</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>98.459851557803873</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>98.457924527372825</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>98.456002753319353</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>98.443838536427137</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>98.4408653414079</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>98.427637631004501</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>98.420688505717223</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>98.406530874759028</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>98.376433350595335</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>98.392861705356268</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>98.41726635236985</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>98.36459280660776</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>98.338069375894847</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>98.305157990553042</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-407B-46A6-91E2-8B4CA562FDEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6985,6 +8138,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="252720640"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7026,399 +8180,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Regulator!$A$11:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>39.3962327923877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.679251280064697</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.716986694552801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.773589816284897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.018865404030706</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.113199909627596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82.716991300979302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88.150939354738895</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.188674769227006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>101.283009274823</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Regulator!$B$11:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>102.037722029775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106.566023916568</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.999995393573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.660363539209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.20753335053001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>136.150938789799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>144.30187297317201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>148.83017485996399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>154.26414633696899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>160</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBF2-4542-A2A6-55C5E72D3257}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="128878288"/>
-        <c:axId val="29124736"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="128878288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="29124736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="29124736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="128878288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7624,46 +8385,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10283,522 +11004,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10974,47 +11179,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA43980A-5B3C-596B-CEB1-EF1192F8DB21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF272FC4-0FFC-1C92-2D11-E237741A5E8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11342,7 +11506,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -11859,13 +12023,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12002,7 +12166,7 @@
         <v>86.4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -12013,7 +12177,7 @@
         <v>85.3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -12024,7 +12188,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -12035,7 +12199,7 @@
         <v>75.7</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12049,8 +12213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E561E017-8F3D-49BF-858B-83C2E3B2EE12}">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12060,94 +12224,101 @@
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -12185,6 +12356,10 @@
         <f t="shared" ref="I3:I34" si="0">H3*(A4-A3)</f>
         <v>8.6365300000000023</v>
       </c>
+      <c r="J3">
+        <f>(H3*F3)/(E3*H3)*100</f>
+        <v>85.11904761904762</v>
+      </c>
       <c r="L3">
         <v>3.6</v>
       </c>
@@ -12240,6 +12415,10 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000023</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="4">(H4*F4)/(E4*H4)*100</f>
+        <v>85.984514139158151</v>
+      </c>
       <c r="P4">
         <v>3.75</v>
       </c>
@@ -12255,7 +12434,7 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B183" si="4">C5/C$3*100</f>
+        <f t="shared" ref="B5:B183" si="5">C5/C$3*100</f>
         <v>98.848462666666677</v>
       </c>
       <c r="C5">
@@ -12286,6 +12465,10 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>86.373837915288703</v>
+      </c>
       <c r="P5">
         <v>3.7</v>
       </c>
@@ -12301,7 +12484,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.272694000000001</v>
       </c>
       <c r="C6">
@@ -12332,6 +12515,10 @@
         <f t="shared" si="0"/>
         <v>8.636530000000004</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>86.37573818279354</v>
+      </c>
       <c r="P6">
         <v>3.65</v>
       </c>
@@ -12347,7 +12534,7 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97.69692533333334</v>
       </c>
       <c r="C7">
@@ -12378,6 +12565,10 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>86.70187656315828</v>
+      </c>
       <c r="P7" s="1">
         <v>3.6</v>
       </c>
@@ -12393,7 +12584,7 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97.121156666666664</v>
       </c>
       <c r="C8">
@@ -12424,6 +12615,10 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>86.866585997472228</v>
+      </c>
       <c r="P8">
         <v>3.55</v>
       </c>
@@ -12439,7 +12634,7 @@
         <v>0.6</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96.545388000000003</v>
       </c>
       <c r="C9">
@@ -12470,8 +12665,12 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>86.86814887293356</v>
+      </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q9">
         <v>15.4</v>
@@ -12485,7 +12684,7 @@
         <v>0.7</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.969619333333327</v>
       </c>
       <c r="C10">
@@ -12516,13 +12715,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>87.132640838200444</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.8</v>
       </c>
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.393850666666665</v>
       </c>
       <c r="C11">
@@ -12553,6 +12756,10 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>87.135022720578647</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -12562,7 +12769,7 @@
         <v>0.9</v>
       </c>
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.818082000000004</v>
       </c>
       <c r="C12">
@@ -12593,13 +12800,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000005</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>87.137404733184027</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.242313333333342</v>
       </c>
       <c r="C13">
@@ -12630,13 +12841,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>87.536441123920824</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93.666544666666667</v>
       </c>
       <c r="C14">
@@ -12667,13 +12882,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999898</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>87.541941637935523</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.2</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93.090776000000005</v>
       </c>
       <c r="C15">
@@ -12704,13 +12923,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>87.54744284326361</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.515007333333344</v>
       </c>
       <c r="C16">
@@ -12741,13 +12964,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999898</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>87.552944740035414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.4</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.939238666666682</v>
       </c>
       <c r="C17">
@@ -12778,13 +13005,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>87.558447328381234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.5</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.363470000000007</v>
       </c>
       <c r="C18">
@@ -12815,13 +13046,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>87.563950608431568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.6</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.787701333333331</v>
       </c>
       <c r="C19">
@@ -12852,13 +13087,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999898</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>87.569454580316801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.7</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.211932666666669</v>
       </c>
       <c r="C20">
@@ -12889,13 +13128,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>88.450229854967816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.8</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.636164000000008</v>
       </c>
       <c r="C21">
@@ -12926,13 +13169,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999898</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>88.454573100000673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.9</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.060395333333346</v>
       </c>
       <c r="C22">
@@ -12963,13 +13210,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>88.458916771594403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88.484626666666671</v>
       </c>
       <c r="C23">
@@ -13000,13 +13251,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>88.463260869811876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.1</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87.908858000000009</v>
       </c>
       <c r="C24">
@@ -13037,13 +13292,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>88.467605394715903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.2000000000000002</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87.333089333333348</v>
       </c>
       <c r="C25">
@@ -13074,13 +13333,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>89.136088650069368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.757320666666686</v>
       </c>
       <c r="C26">
@@ -13111,13 +13374,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>89.14135970917873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.4</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.181552000000011</v>
       </c>
       <c r="C27">
@@ -13148,8 +13415,12 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>89.14663139173274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -13185,13 +13456,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>89.151903697841959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.6</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.030014666666673</v>
       </c>
       <c r="C29">
@@ -13222,13 +13497,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>89.157176627617062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.7</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84.454246000000012</v>
       </c>
       <c r="C30">
@@ -13259,13 +13538,17 @@
         <f t="shared" si="0"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>89.162450181168694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.8</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.87847733333335</v>
       </c>
       <c r="C31">
@@ -13296,13 +13579,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>89.167724358607586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.9</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.302708666666675</v>
       </c>
       <c r="C32">
@@ -13333,13 +13620,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>89.946232560637725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.726940000000013</v>
       </c>
       <c r="C33">
@@ -13370,8 +13661,12 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>89.951102502702511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.1</v>
       </c>
@@ -13407,13 +13702,17 @@
         <f t="shared" si="0"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>89.955972972140572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.2</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81.57540266666669</v>
       </c>
       <c r="C35">
@@ -13441,20 +13740,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I66" si="5">H35*(A36-A35)</f>
+        <f t="shared" ref="I35:I66" si="6">H35*(A36-A35)</f>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>89.960843969037612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.3</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.999634000000015</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="6">C35-I35</f>
+        <f t="shared" ref="C36:C67" si="7">C35-I35</f>
         <v>1214.9945100000002</v>
       </c>
       <c r="D36">
@@ -13478,20 +13781,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>89.965715493479266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.4</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.423865333333339</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1206.3579800000002</v>
       </c>
       <c r="D37">
@@ -13515,20 +13822,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>89.970587545551268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.5</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.848096666666677</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1197.7214500000002</v>
       </c>
       <c r="D38">
@@ -13552,20 +13863,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>90.657709771275719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.6</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.272328000000016</v>
       </c>
       <c r="C39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1189.0849200000002</v>
       </c>
       <c r="D39">
@@ -13589,20 +13904,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>90.662886450738654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.7</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.696559333333354</v>
       </c>
       <c r="C40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1180.4483900000002</v>
       </c>
       <c r="D40">
@@ -13626,20 +13945,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>90.668063721426321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.8</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.120790666666679</v>
       </c>
       <c r="C41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1171.8118600000003</v>
       </c>
       <c r="D41">
@@ -13663,20 +13986,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>90.673241583440017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.9</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.545022000000017</v>
       </c>
       <c r="C42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1163.1753300000003</v>
       </c>
       <c r="D42">
@@ -13700,20 +14027,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000094</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>90.678420036881064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.969253333333356</v>
       </c>
       <c r="C43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1154.5388000000003</v>
       </c>
       <c r="D43">
@@ -13737,20 +14068,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>90.683599081850801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.0999999999999996</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.393484666666694</v>
       </c>
       <c r="C44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1145.9022700000003</v>
       </c>
       <c r="D44">
@@ -13774,20 +14109,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>90.688778718450578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.2</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.817716000000019</v>
       </c>
       <c r="C45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1137.2657400000003</v>
       </c>
       <c r="D45">
@@ -13811,20 +14150,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>90.693958946781777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.3</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.241947333333343</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1128.6292100000003</v>
       </c>
       <c r="D46">
@@ -13848,20 +14191,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>91.385687297918921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.4000000000000004</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.666178666666681</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1119.9926800000003</v>
       </c>
       <c r="D47">
@@ -13885,20 +14232,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>91.392085542000103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.5</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.09041000000002</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1111.3561500000003</v>
       </c>
       <c r="D48">
@@ -13922,20 +14273,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>91.398484682072635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.514641333333358</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1102.7196200000003</v>
       </c>
       <c r="D49">
@@ -13959,20 +14314,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>91.40488471832478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.7</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.938872666666683</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1094.0830900000003</v>
       </c>
       <c r="D50">
@@ -13996,20 +14355,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>91.411285650944777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.8</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.363104000000021</v>
       </c>
       <c r="C51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1085.4465600000003</v>
       </c>
       <c r="D51">
@@ -14033,20 +14396,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>91.417687480120989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.9000000000000004</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.78733533333336</v>
       </c>
       <c r="C52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1076.8100300000003</v>
       </c>
       <c r="D52">
@@ -14070,20 +14437,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>91.42409020604174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.211566666666698</v>
       </c>
       <c r="C53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1068.1735000000003</v>
       </c>
       <c r="D53">
@@ -14107,20 +14478,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>92.230803597666423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.0999999999999996</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.635798000000023</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1059.5369700000003</v>
       </c>
       <c r="D54">
@@ -14144,20 +14519,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>92.236511053841426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.2</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.060029333333347</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1050.9004400000003</v>
       </c>
       <c r="D55">
@@ -14181,20 +14560,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>92.242219216441441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.3</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.484260666666685</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1042.2639100000004</v>
       </c>
       <c r="D56">
@@ -14218,20 +14601,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>92.247928085597593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.4</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.908492000000024</v>
       </c>
       <c r="C57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1033.6273800000004</v>
       </c>
       <c r="D57">
@@ -14255,20 +14642,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>92.253637661441061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.5</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.332723333333362</v>
       </c>
       <c r="C58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1024.9908500000004</v>
       </c>
       <c r="D58">
@@ -14292,20 +14683,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>92.259347944103126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.6</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.756954666666687</v>
       </c>
       <c r="C59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1016.3543200000004</v>
       </c>
       <c r="D59">
@@ -14329,20 +14724,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>92.265058933714997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.7</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.181186000000025</v>
       </c>
       <c r="C60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1007.7177900000004</v>
       </c>
       <c r="D60">
@@ -14366,20 +14765,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>92.270770630407995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.8</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.605417333333364</v>
       </c>
       <c r="C61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>999.08126000000038</v>
       </c>
       <c r="D61">
@@ -14403,20 +14806,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>92.276483034313429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5.9</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.029648666666702</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>990.44473000000039</v>
       </c>
       <c r="D62">
@@ -14440,20 +14847,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>92.947380483314873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.453880000000026</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>981.8082000000004</v>
       </c>
       <c r="D63">
@@ -14477,20 +14888,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>92.95326802032335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.1</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.878111333333351</v>
       </c>
       <c r="C64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>973.1716700000004</v>
       </c>
       <c r="D64">
@@ -14514,20 +14929,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>92.95915630324393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.2</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.302342666666689</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>964.53514000000041</v>
       </c>
       <c r="D65">
@@ -14551,20 +14970,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>92.965045332218352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.3</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.726574000000028</v>
       </c>
       <c r="C66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>955.89861000000042</v>
       </c>
       <c r="D66">
@@ -14588,20 +15011,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>92.97093510738847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.4</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.150805333333359</v>
       </c>
       <c r="C67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>947.26208000000042</v>
       </c>
       <c r="D67">
@@ -14625,20 +15052,24 @@
         <v>86.365300000000019</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I98" si="7">H67*(A68-A67)</f>
+        <f t="shared" ref="I67:I98" si="8">H67*(A68-A67)</f>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>92.976825628896037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.5</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.575036666666698</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C99" si="8">C67-I67</f>
+        <f t="shared" ref="C68:C99" si="9">C67-I67</f>
         <v>938.62555000000043</v>
       </c>
       <c r="D68">
@@ -14650,7 +15081,7 @@
         <v>3.844800538539483</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="9">MIN($L$3,E68-$M$3)-$N$3</f>
+        <f t="shared" ref="F68:F131" si="10">MIN($L$3,E68-$M$3)-$N$3</f>
         <v>3.5750000000000002</v>
       </c>
       <c r="G68">
@@ -14658,24 +15089,28 @@
         <v>9</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="10" xml:space="preserve"> 22.6* F68+ 5.5703</f>
+        <f t="shared" ref="H68:H131" si="11" xml:space="preserve"> 22.6* F68+ 5.5703</f>
         <v>86.365300000000019</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="12">(H68*F68)/(E68*H68)*100</f>
+        <v>92.982716896883005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6.6</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.999268000000029</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>929.98902000000044</v>
       </c>
       <c r="D69">
@@ -14687,7 +15122,7 @@
         <v>3.8445569213781559</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G69">
@@ -14695,24 +15130,28 @@
         <v>9</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <f t="shared" si="12"/>
+        <v>92.988608911491227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.7</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.423499333333368</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>921.35249000000044</v>
       </c>
       <c r="D70">
@@ -14724,7 +15163,7 @@
         <v>3.8443133042168287</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G70">
@@ -14732,24 +15171,28 @@
         <v>9</v>
       </c>
       <c r="H70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <f t="shared" si="12"/>
+        <v>92.994501672862668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.8</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.847730666666699</v>
       </c>
       <c r="C71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>912.71596000000045</v>
       </c>
       <c r="D71">
@@ -14761,7 +15204,7 @@
         <v>3.8181239056209821</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G71">
@@ -14769,24 +15212,28 @@
         <v>9</v>
       </c>
       <c r="H71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <f t="shared" si="12"/>
+        <v>93.632372557028376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6.9</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.271962000000038</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>904.07943000000046</v>
       </c>
       <c r="D72">
@@ -14798,7 +15245,7 @@
         <v>3.8178741724190011</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G72">
@@ -14806,24 +15253,28 @@
         <v>9</v>
       </c>
       <c r="H72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <f t="shared" si="12"/>
+        <v>93.638497198949963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.696193333333369</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>895.44290000000046</v>
       </c>
       <c r="D73">
@@ -14835,7 +15286,7 @@
         <v>3.8176244392170195</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G73">
@@ -14843,24 +15294,28 @@
         <v>9</v>
       </c>
       <c r="H73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <f t="shared" si="12"/>
+        <v>93.644622642169054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.1</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.120424666666693</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>886.80637000000047</v>
       </c>
       <c r="D74">
@@ -14872,7 +15327,7 @@
         <v>3.817374706015038</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G74">
@@ -14880,24 +15335,28 @@
         <v>9</v>
       </c>
       <c r="H74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <f t="shared" si="12"/>
+        <v>93.650748886842877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7.2</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.544656000000032</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>878.16984000000048</v>
       </c>
       <c r="D75">
@@ -14909,7 +15368,7 @@
         <v>3.8171249728130565</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G75">
@@ -14917,24 +15376,28 @@
         <v>9</v>
       </c>
       <c r="H75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <f t="shared" si="12"/>
+        <v>93.656875933128788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7.3</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.968887333333363</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>869.53331000000048</v>
       </c>
       <c r="D76">
@@ -14946,7 +15409,7 @@
         <v>3.8168752396110754</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G76">
@@ -14954,24 +15417,28 @@
         <v>9</v>
       </c>
       <c r="H76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <f t="shared" si="12"/>
+        <v>93.663003781184088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7.4</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.393118666666695</v>
       </c>
       <c r="C77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>860.89678000000049</v>
       </c>
       <c r="D77">
@@ -14983,7 +15450,7 @@
         <v>3.8166255064090939</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G77">
@@ -14991,24 +15458,28 @@
         <v>9</v>
       </c>
       <c r="H77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <f t="shared" si="12"/>
+        <v>93.669132431166162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.5</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.817350000000033</v>
       </c>
       <c r="C78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>852.2602500000005</v>
       </c>
       <c r="D78">
@@ -15020,7 +15491,7 @@
         <v>3.8163757732071124</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G78">
@@ -15028,24 +15499,28 @@
         <v>9</v>
       </c>
       <c r="H78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <f t="shared" si="12"/>
+        <v>93.675261883232466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.6</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.241581333333372</v>
       </c>
       <c r="C79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>843.6237200000005</v>
       </c>
       <c r="D79">
@@ -15057,7 +15532,7 @@
         <v>3.8161260400051313</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G79">
@@ -15065,24 +15540,28 @@
         <v>9</v>
       </c>
       <c r="H79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <f t="shared" si="12"/>
+        <v>93.681392137540442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.7</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.665812666666703</v>
       </c>
       <c r="C80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>834.98719000000051</v>
       </c>
       <c r="D80">
@@ -15094,7 +15573,7 @@
         <v>3.8158763068031498</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G80">
@@ -15102,24 +15581,28 @@
         <v>9</v>
       </c>
       <c r="H80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <f t="shared" si="12"/>
+        <v>93.687523194247618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.8</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.090044000000034</v>
       </c>
       <c r="C81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>826.35066000000052</v>
       </c>
       <c r="D81">
@@ -15131,7 +15614,7 @@
         <v>3.7915322049800859</v>
       </c>
       <c r="F81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G81">
@@ -15139,24 +15622,28 @@
         <v>9</v>
       </c>
       <c r="H81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000000484</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <f t="shared" si="12"/>
+        <v>94.289058004157908</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>7.9</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.514275333333373</v>
       </c>
       <c r="C82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>817.71413000000052</v>
       </c>
       <c r="D82">
@@ -15168,7 +15655,7 @@
         <v>3.791321759949513</v>
       </c>
       <c r="F82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G82">
@@ -15176,24 +15663,28 @@
         <v>9</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <f t="shared" si="12"/>
+        <v>94.294291710224215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.938506666666697</v>
       </c>
       <c r="C83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>809.07760000000053</v>
       </c>
       <c r="D83">
@@ -15205,7 +15696,7 @@
         <v>3.7911113149189402</v>
       </c>
       <c r="F83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G83">
@@ -15213,24 +15704,28 @@
         <v>9</v>
       </c>
       <c r="H83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <f t="shared" si="12"/>
+        <v>94.299525997337796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.1</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.362738000000029</v>
       </c>
       <c r="C84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>800.44107000000054</v>
       </c>
       <c r="D84">
@@ -15242,7 +15737,7 @@
         <v>3.7909008698883673</v>
       </c>
       <c r="F84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G84">
@@ -15250,24 +15745,28 @@
         <v>9</v>
       </c>
       <c r="H84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <f t="shared" si="12"/>
+        <v>94.304760865595398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8.1999999999999993</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.786969333333367</v>
       </c>
       <c r="C85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>791.80454000000054</v>
       </c>
       <c r="D85">
@@ -15279,7 +15778,7 @@
         <v>3.7906904248577948</v>
       </c>
       <c r="F85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G85">
@@ -15287,24 +15786,28 @@
         <v>9</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <f t="shared" si="12"/>
+        <v>94.309996315093812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.3000000000000007</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.211200666666691</v>
       </c>
       <c r="C86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>783.16801000000044</v>
       </c>
       <c r="D86">
@@ -15316,7 +15819,7 @@
         <v>3.790479979827222</v>
       </c>
       <c r="F86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G86">
@@ -15324,24 +15827,28 @@
         <v>9</v>
       </c>
       <c r="H86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f t="shared" si="12"/>
+        <v>94.315232345929886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8.4</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.635432000000023</v>
       </c>
       <c r="C87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>774.53148000000044</v>
       </c>
       <c r="D87">
@@ -15353,7 +15860,7 @@
         <v>3.7902695347966491</v>
       </c>
       <c r="F87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G87">
@@ -15361,24 +15868,28 @@
         <v>9</v>
       </c>
       <c r="H87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <f t="shared" si="12"/>
+        <v>94.320468958200408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8.5</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.059663333333361</v>
       </c>
       <c r="C88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>765.89495000000045</v>
       </c>
       <c r="D88">
@@ -15390,7 +15901,7 @@
         <v>3.7900590897660762</v>
       </c>
       <c r="F88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G88">
@@ -15398,24 +15909,28 @@
         <v>9</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <f t="shared" si="12"/>
+        <v>94.325706152002269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.6</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.483894666666693</v>
       </c>
       <c r="C89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>757.25842000000046</v>
       </c>
       <c r="D89">
@@ -15427,7 +15942,7 @@
         <v>3.7898486447355038</v>
       </c>
       <c r="F89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G89">
@@ -15435,24 +15950,28 @@
         <v>9</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <f t="shared" si="12"/>
+        <v>94.330943927432301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.6999999999999993</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.908126000000031</v>
       </c>
       <c r="C90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>748.62189000000046</v>
       </c>
       <c r="D90">
@@ -15464,7 +15983,7 @@
         <v>3.7712564658972241</v>
       </c>
       <c r="F90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G90">
@@ -15472,24 +15991,28 @@
         <v>9</v>
       </c>
       <c r="H90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <f t="shared" si="12"/>
+        <v>94.795992591012194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.8000000000000007</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.332357333333356</v>
       </c>
       <c r="C91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>739.98536000000036</v>
       </c>
       <c r="D91">
@@ -15501,7 +16024,7 @@
         <v>3.7710234847633872</v>
       </c>
       <c r="F91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G91">
@@ -15509,24 +16032,28 @@
         <v>9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>94.801849271015968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8.9</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.756588666666687</v>
       </c>
       <c r="C92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>731.34883000000036</v>
       </c>
       <c r="D92">
@@ -15538,7 +16065,7 @@
         <v>3.7707905036295504</v>
       </c>
       <c r="F92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G92">
@@ -15546,24 +16073,28 @@
         <v>9</v>
       </c>
       <c r="H92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <f t="shared" si="12"/>
+        <v>94.807706674738554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.180820000000026</v>
       </c>
       <c r="C93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>722.71230000000037</v>
       </c>
       <c r="D93">
@@ -15575,7 +16106,7 @@
         <v>3.770557522495714</v>
       </c>
       <c r="F93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G93">
@@ -15583,24 +16114,28 @@
         <v>9</v>
       </c>
       <c r="H93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <f t="shared" si="12"/>
+        <v>94.813564802314033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.1</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.605051333333357</v>
       </c>
       <c r="C94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>714.07577000000038</v>
       </c>
       <c r="D94">
@@ -15612,7 +16147,7 @@
         <v>3.7703245413618771</v>
       </c>
       <c r="F94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G94">
@@ -15620,24 +16155,28 @@
         <v>9</v>
       </c>
       <c r="H94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <f t="shared" si="12"/>
+        <v>94.819423653876669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.1999999999999993</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.029282666666695</v>
       </c>
       <c r="C95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>705.43924000000038</v>
       </c>
       <c r="D95">
@@ -15649,7 +16188,7 @@
         <v>3.7700915602280403</v>
       </c>
       <c r="F95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G95">
@@ -15657,24 +16196,28 @@
         <v>9</v>
       </c>
       <c r="H95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <f t="shared" si="12"/>
+        <v>94.825283229560625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.3000000000000007</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.45351400000002</v>
       </c>
       <c r="C96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>696.80271000000027</v>
       </c>
       <c r="D96">
@@ -15686,7 +16229,7 @@
         <v>3.7698585790942039</v>
       </c>
       <c r="F96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G96">
@@ -15694,24 +16237,28 @@
         <v>9</v>
       </c>
       <c r="H96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f t="shared" si="12"/>
+        <v>94.831143529500167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.4</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.877745333333351</v>
       </c>
       <c r="C97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>688.16618000000028</v>
       </c>
       <c r="D97">
@@ -15723,7 +16270,7 @@
         <v>3.769625597960367</v>
       </c>
       <c r="F97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G97">
@@ -15731,24 +16278,28 @@
         <v>9</v>
       </c>
       <c r="H97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <f t="shared" si="12"/>
+        <v>94.83700455382963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.5</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.30197666666669</v>
       </c>
       <c r="C98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>679.52965000000029</v>
       </c>
       <c r="D98">
@@ -15760,7 +16311,7 @@
         <v>3.7693926168265302</v>
       </c>
       <c r="F98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G98">
@@ -15768,24 +16319,28 @@
         <v>9</v>
       </c>
       <c r="H98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <f t="shared" si="12"/>
+        <v>94.842866302683277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.6</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.726208000000014</v>
       </c>
       <c r="C99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>670.89312000000029</v>
       </c>
       <c r="D99">
@@ -15797,7 +16352,7 @@
         <v>3.7691596356926933</v>
       </c>
       <c r="F99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G99">
@@ -15805,24 +16360,28 @@
         <v>9</v>
       </c>
       <c r="H99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I99">
-        <f t="shared" ref="I99:I123" si="11">H99*(A100-A99)</f>
+        <f t="shared" ref="I99:I123" si="13">H99*(A100-A99)</f>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <f t="shared" si="12"/>
+        <v>94.848728776195486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9.6999999999999993</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.150439333333352</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:C123" si="12">C99-I99</f>
+        <f t="shared" ref="C100:C123" si="14">C99-I99</f>
         <v>662.2565900000003</v>
       </c>
       <c r="D100">
@@ -15834,7 +16393,7 @@
         <v>3.7689266545588569</v>
       </c>
       <c r="F100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G100">
@@ -15842,24 +16401,28 @@
         <v>9</v>
       </c>
       <c r="H100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <f t="shared" si="12"/>
+        <v>94.854591974500636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.8000000000000007</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.574670666666684</v>
       </c>
       <c r="C101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>653.62006000000019</v>
       </c>
       <c r="D101">
@@ -15871,7 +16434,7 @@
         <v>3.7510133558085785</v>
       </c>
       <c r="F101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G101">
@@ -15879,24 +16442,28 @@
         <v>9</v>
       </c>
       <c r="H101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f t="shared" si="12"/>
+        <v>95.307578536450293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.9</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.998902000000008</v>
       </c>
       <c r="C102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>644.9835300000002</v>
       </c>
       <c r="D102">
@@ -15908,7 +16475,7 @@
         <v>3.7508073016950094</v>
       </c>
       <c r="F102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G102">
@@ -15916,24 +16483,28 @@
         <v>9</v>
       </c>
       <c r="H102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f t="shared" si="12"/>
+        <v>95.312814347578978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.423133333333347</v>
       </c>
       <c r="C103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>636.34700000000021</v>
       </c>
       <c r="D103">
@@ -15945,7 +16516,7 @@
         <v>3.7506012475814399</v>
       </c>
       <c r="F103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G103">
@@ -15953,24 +16524,28 @@
         <v>9</v>
       </c>
       <c r="H103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <f t="shared" si="12"/>
+        <v>95.318050734007656</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10.1</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.847364666666678</v>
       </c>
       <c r="C104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>627.71047000000021</v>
       </c>
       <c r="D104">
@@ -15982,7 +16557,7 @@
         <v>3.7503951934678708</v>
       </c>
       <c r="F104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G104">
@@ -15990,24 +16565,28 @@
         <v>9</v>
       </c>
       <c r="H104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104">
+        <f t="shared" si="12"/>
+        <v>95.323287695831112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.199999999999999</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.271596000000017</v>
       </c>
       <c r="C105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>619.07394000000022</v>
       </c>
       <c r="D105">
@@ -16019,7 +16598,7 @@
         <v>3.7501891393543016</v>
       </c>
       <c r="F105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G105">
@@ -16027,24 +16606,28 @@
         <v>9</v>
       </c>
       <c r="H105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <f t="shared" si="12"/>
+        <v>95.328525233144234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10.3</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.695827333333341</v>
       </c>
       <c r="C106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>610.43741000000011</v>
       </c>
       <c r="D106">
@@ -16056,7 +16639,7 @@
         <v>3.7499039002678893</v>
       </c>
       <c r="F106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G106">
@@ -16064,24 +16647,28 @@
         <v>9</v>
       </c>
       <c r="H106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f t="shared" si="12"/>
+        <v>95.335776464687711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10.4</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.120058666666672</v>
       </c>
       <c r="C107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>601.80088000000012</v>
       </c>
       <c r="D107">
@@ -16093,7 +16680,7 @@
         <v>3.7496827156131363</v>
       </c>
       <c r="F107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G107">
@@ -16101,24 +16688,28 @@
         <v>9</v>
       </c>
       <c r="H107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <f t="shared" si="12"/>
+        <v>95.341400090045411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10.5</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.544290000000011</v>
       </c>
       <c r="C108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>593.16435000000013</v>
       </c>
       <c r="D108">
@@ -16130,7 +16721,7 @@
         <v>3.7494611379432277</v>
       </c>
       <c r="F108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G108">
@@ -16138,24 +16729,28 @@
         <v>9</v>
       </c>
       <c r="H108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <f t="shared" si="12"/>
+        <v>95.347034373079865</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10.6</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.968521333333342</v>
       </c>
       <c r="C109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>584.52782000000013</v>
       </c>
       <c r="D109">
@@ -16167,7 +16762,7 @@
         <v>3.7492370146651455</v>
       </c>
       <c r="F109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G109">
@@ -16175,24 +16770,28 @@
         <v>9</v>
       </c>
       <c r="H109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <f t="shared" si="12"/>
+        <v>95.352734063394323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10.7</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.392752666666674</v>
       </c>
       <c r="C110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>575.89129000000014</v>
       </c>
       <c r="D110">
@@ -16204,7 +16803,7 @@
         <v>3.7490154253638153</v>
       </c>
       <c r="F110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G110">
@@ -16212,24 +16811,28 @@
         <v>9</v>
       </c>
       <c r="H110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <f t="shared" si="12"/>
+        <v>95.358369981981923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10.8</v>
       </c>
       <c r="B111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.816984000000005</v>
       </c>
       <c r="C111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>567.25476000000003</v>
       </c>
       <c r="D111">
@@ -16241,7 +16844,7 @@
         <v>3.7487906024135609</v>
       </c>
       <c r="F111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G111">
@@ -16249,24 +16852,28 @@
         <v>9</v>
       </c>
       <c r="H111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <f t="shared" si="12"/>
+        <v>95.364088826362575</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>10.9</v>
       </c>
       <c r="B112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.241215333333336</v>
       </c>
       <c r="C112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>558.61823000000004</v>
       </c>
       <c r="D112">
@@ -16278,7 +16885,7 @@
         <v>3.7485686971241678</v>
       </c>
       <c r="F112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G112">
@@ -16286,24 +16893,28 @@
         <v>9</v>
       </c>
       <c r="H112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <f t="shared" si="12"/>
+        <v>95.369734126592746</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11</v>
       </c>
       <c r="B113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.665446666666668</v>
       </c>
       <c r="C113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>549.98170000000005</v>
       </c>
       <c r="D113">
@@ -16315,7 +16926,7 @@
         <v>3.735362661033117</v>
       </c>
       <c r="F113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G113">
@@ -16323,24 +16934,28 @@
         <v>9</v>
       </c>
       <c r="H113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <f t="shared" si="12"/>
+        <v>95.706905176677978</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11.1</v>
       </c>
       <c r="B114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.089678000000006</v>
       </c>
       <c r="C114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>541.34517000000005</v>
       </c>
       <c r="D114">
@@ -16352,7 +16967,7 @@
         <v>3.7351215604719821</v>
       </c>
       <c r="F114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G114">
@@ -16360,24 +16975,28 @@
         <v>9</v>
       </c>
       <c r="H114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <f t="shared" si="12"/>
+        <v>95.713083018059848</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11.2</v>
       </c>
       <c r="B115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.513909333333338</v>
       </c>
       <c r="C115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>532.70864000000006</v>
       </c>
       <c r="D115">
@@ -16389,7 +17008,7 @@
         <v>3.7348795060585216</v>
       </c>
       <c r="F115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G115">
@@ -16397,24 +17016,28 @@
         <v>9</v>
       </c>
       <c r="H115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <f t="shared" si="12"/>
+        <v>95.719286102826786</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11.3</v>
       </c>
       <c r="B116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.938140666666662</v>
       </c>
       <c r="C116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>524.07210999999995</v>
       </c>
       <c r="D116">
@@ -16426,7 +17049,7 @@
         <v>3.7346365926854364</v>
       </c>
       <c r="F116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G116">
@@ -16434,24 +17057,28 @@
         <v>9</v>
       </c>
       <c r="H116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <f t="shared" si="12"/>
+        <v>95.725512008367943</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.4</v>
       </c>
       <c r="B117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.362371999999993</v>
       </c>
       <c r="C117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>515.43557999999996</v>
       </c>
       <c r="D117">
@@ -16463,7 +17090,7 @@
         <v>3.7343946365476226</v>
       </c>
       <c r="F117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G117">
@@ -16471,24 +17098,28 @@
         <v>9</v>
       </c>
       <c r="H117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <f t="shared" si="12"/>
+        <v>95.731714185006979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11.5</v>
       </c>
       <c r="B118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.786603333333332</v>
       </c>
       <c r="C118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>506.79904999999997</v>
       </c>
       <c r="D118">
@@ -16500,7 +17131,7 @@
         <v>3.7341507854879277</v>
       </c>
       <c r="F118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G118">
@@ -16508,24 +17139,28 @@
         <v>9</v>
       </c>
       <c r="H118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <f t="shared" si="12"/>
+        <v>95.737965748291771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11.6</v>
       </c>
       <c r="B119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.210834666666663</v>
       </c>
       <c r="C119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>498.16251999999997</v>
       </c>
       <c r="D119">
@@ -16537,7 +17172,7 @@
         <v>3.7339084672873635</v>
       </c>
       <c r="F119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G119">
@@ -16545,24 +17180,28 @@
         <v>9</v>
       </c>
       <c r="H119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <f t="shared" si="12"/>
+        <v>95.744178822819194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11.7</v>
       </c>
       <c r="B120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.635065999999995</v>
       </c>
       <c r="C120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>489.52598999999998</v>
       </c>
       <c r="D120">
@@ -16574,7 +17213,7 @@
         <v>3.7336632755181491</v>
       </c>
       <c r="F120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G120">
@@ -16582,24 +17221,28 @@
         <v>9</v>
       </c>
       <c r="H120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <f t="shared" si="12"/>
+        <v>95.750466396942841</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11.8</v>
       </c>
       <c r="B121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.059297333333326</v>
       </c>
       <c r="C121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>480.88945999999987</v>
       </c>
       <c r="D121">
@@ -16611,7 +17254,7 @@
         <v>3.7334205600692658</v>
       </c>
       <c r="F121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G121">
@@ -16619,24 +17262,28 @@
         <v>9</v>
       </c>
       <c r="H121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <f t="shared" si="12"/>
+        <v>95.756691282957789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>11.9</v>
       </c>
       <c r="B122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.483528666666661</v>
       </c>
       <c r="C122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>472.25292999999988</v>
       </c>
       <c r="D122">
@@ -16648,7 +17295,7 @@
         <v>3.7331743751312039</v>
       </c>
       <c r="F122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G122">
@@ -16656,24 +17303,28 @@
         <v>9</v>
       </c>
       <c r="H122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <f t="shared" si="12"/>
+        <v>95.763005977301972</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12</v>
       </c>
       <c r="B123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.907759999999989</v>
       </c>
       <c r="C123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>463.61639999999989</v>
       </c>
       <c r="D123">
@@ -16685,7 +17336,7 @@
         <v>3.7210703394305376</v>
       </c>
       <c r="F123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G123">
@@ -16693,24 +17344,28 @@
         <v>9</v>
       </c>
       <c r="H123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <f t="shared" si="12"/>
+        <v>96.074507437209817</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12.1</v>
       </c>
       <c r="B124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.331991333333324</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C183" si="13">C123-I123</f>
+        <f t="shared" ref="C124:C183" si="15">C123-I123</f>
         <v>454.97986999999989</v>
       </c>
       <c r="D124">
@@ -16722,7 +17377,7 @@
         <v>3.7207145205630865</v>
       </c>
       <c r="F124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G124">
@@ -16730,24 +17385,28 @@
         <v>9</v>
       </c>
       <c r="H124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I124">
-        <f t="shared" ref="I124:I183" si="14">H124*(A125-A124)</f>
+        <f t="shared" ref="I124:I183" si="16">H124*(A125-A124)</f>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <f t="shared" si="12"/>
+        <v>96.08369522150187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12.2</v>
       </c>
       <c r="B125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.756222666666659</v>
       </c>
       <c r="C125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>446.3433399999999</v>
       </c>
       <c r="D125">
@@ -16759,7 +17418,7 @@
         <v>3.7203574863083611</v>
       </c>
       <c r="F125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G125">
@@ -16767,24 +17426,28 @@
         <v>9</v>
       </c>
       <c r="H125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <f t="shared" si="12"/>
+        <v>96.092916155415054</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12.3</v>
       </c>
       <c r="B126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.180453999999983</v>
       </c>
       <c r="C126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>437.70680999999979</v>
       </c>
       <c r="D126">
@@ -16796,7 +17459,7 @@
         <v>3.720001227112177</v>
       </c>
       <c r="F126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G126">
@@ -16804,24 +17467,28 @@
         <v>9</v>
       </c>
       <c r="H126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <f t="shared" si="12"/>
+        <v>96.102118836537571</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12.4</v>
       </c>
       <c r="B127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.604685333333318</v>
       </c>
       <c r="C127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>429.0702799999998</v>
       </c>
       <c r="D127">
@@ -16833,7 +17500,7 @@
         <v>3.7196425797459707</v>
       </c>
       <c r="F127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G127">
@@ -16841,24 +17508,28 @@
         <v>9</v>
       </c>
       <c r="H127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <f t="shared" si="12"/>
+        <v>96.111384988074619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12.5</v>
       </c>
       <c r="B128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.028916666666653</v>
       </c>
       <c r="C128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>420.4337499999998</v>
       </c>
       <c r="D128">
@@ -16870,7 +17541,7 @@
         <v>3.719285818852538</v>
       </c>
       <c r="F128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G128">
@@ -16878,24 +17549,28 @@
         <v>9</v>
       </c>
       <c r="H128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <f t="shared" si="12"/>
+        <v>96.120604172952426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12.6</v>
       </c>
       <c r="B129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.453147999999988</v>
       </c>
       <c r="C129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>411.79721999999981</v>
       </c>
       <c r="D129">
@@ -16907,7 +17582,7 @@
         <v>3.7189263378273059</v>
       </c>
       <c r="F129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G129">
@@ -16915,24 +17590,28 @@
         <v>9</v>
       </c>
       <c r="H129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <f t="shared" si="12"/>
+        <v>96.12989543881659</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12.7</v>
       </c>
       <c r="B130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.877379333333323</v>
       </c>
       <c r="C130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>403.16068999999982</v>
       </c>
       <c r="D130">
@@ -16944,7 +17623,7 @@
         <v>3.7185691745583225</v>
       </c>
       <c r="F130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G130">
@@ -16952,24 +17631,28 @@
         <v>9</v>
       </c>
       <c r="H130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <f t="shared" si="12"/>
+        <v>96.139128578255523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12.8</v>
       </c>
       <c r="B131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.301610666666647</v>
       </c>
       <c r="C131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>394.52415999999971</v>
       </c>
       <c r="D131">
@@ -16981,7 +17664,7 @@
         <v>3.7182120112893391</v>
       </c>
       <c r="F131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G131">
@@ -16989,24 +17672,28 @@
         <v>9</v>
       </c>
       <c r="H131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.365300000000019</v>
       </c>
       <c r="I131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f t="shared" si="12"/>
+        <v>96.148363491524577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>12.9</v>
       </c>
       <c r="B132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.725841999999982</v>
       </c>
       <c r="C132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>385.88762999999972</v>
       </c>
       <c r="D132">
@@ -17018,7 +17705,7 @@
         <v>3.7038089122324451</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F183" si="15">MIN($L$3,E132-$M$3)-$N$3</f>
+        <f t="shared" ref="F132:F183" si="17">MIN($L$3,E132-$M$3)-$N$3</f>
         <v>3.5750000000000002</v>
       </c>
       <c r="G132">
@@ -17026,24 +17713,28 @@
         <v>9</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H183" si="16" xml:space="preserve"> 22.6* F132+ 5.5703</f>
+        <f t="shared" ref="H132:H183" si="18" xml:space="preserve"> 22.6* F132+ 5.5703</f>
         <v>86.365300000000019</v>
       </c>
       <c r="I132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <f t="shared" ref="J132:J183" si="19">(H132*F132)/(E132*H132)*100</f>
+        <v>96.522258159511637</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13</v>
       </c>
       <c r="B133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.150073333333317</v>
       </c>
       <c r="C133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>377.25109999999972</v>
       </c>
       <c r="D133">
@@ -17055,7 +17746,7 @@
         <v>3.7032059571542333</v>
       </c>
       <c r="F133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G133">
@@ -17063,24 +17754,28 @@
         <v>9</v>
       </c>
       <c r="H133">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I133">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <f t="shared" si="19"/>
+        <v>96.537973889717065</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13.1</v>
       </c>
       <c r="B134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.574304666666649</v>
       </c>
       <c r="C134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>368.61456999999973</v>
       </c>
       <c r="D134">
@@ -17092,7 +17787,7 @@
         <v>3.7026013970156701</v>
       </c>
       <c r="F134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G134">
@@ -17100,24 +17795,28 @@
         <v>9</v>
       </c>
       <c r="H134">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I134">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I134">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <f t="shared" si="19"/>
+        <v>96.553736593992596</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13.2</v>
       </c>
       <c r="B135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.99853599999998</v>
       </c>
       <c r="C135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>359.97803999999974</v>
       </c>
       <c r="D135">
@@ -17129,7 +17828,7 @@
         <v>3.7019952687384348</v>
       </c>
       <c r="F135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G135">
@@ -17137,24 +17836,28 @@
         <v>9</v>
       </c>
       <c r="H135">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I135">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="14"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <f t="shared" si="19"/>
+        <v>96.569545352722415</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13.3</v>
       </c>
       <c r="B136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.422767333333308</v>
       </c>
       <c r="C136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>351.34150999999963</v>
       </c>
       <c r="D136">
@@ -17166,7 +17869,7 @@
         <v>3.7013909636034321</v>
       </c>
       <c r="F136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G136">
@@ -17174,24 +17877,28 @@
         <v>9</v>
       </c>
       <c r="H136">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I136">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I136">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f t="shared" si="19"/>
+        <v>96.58531171534537</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13.4</v>
       </c>
       <c r="B137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.846998666666643</v>
       </c>
       <c r="C137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>342.70497999999964</v>
       </c>
       <c r="D137">
@@ -17203,7 +17910,7 @@
         <v>3.7007831414415833</v>
       </c>
       <c r="F137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G137">
@@ -17211,24 +17918,28 @@
         <v>9</v>
       </c>
       <c r="H137">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I137">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <f t="shared" si="19"/>
+        <v>96.601175031493852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13.5</v>
       </c>
       <c r="B138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.271229999999974</v>
       </c>
       <c r="C138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>334.06844999999964</v>
       </c>
       <c r="D138">
@@ -17240,7 +17951,7 @@
         <v>3.7001782013842508</v>
       </c>
       <c r="F138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G138">
@@ -17248,24 +17959,28 @@
         <v>9</v>
       </c>
       <c r="H138">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I138">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <f t="shared" si="19"/>
+        <v>96.616968303380077</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13.6</v>
       </c>
       <c r="B139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.695461333333309</v>
       </c>
       <c r="C139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>325.43191999999965</v>
       </c>
       <c r="D139">
@@ -17277,7 +17992,7 @@
         <v>3.6995697445493043</v>
       </c>
       <c r="F139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G139">
@@ -17285,24 +18000,28 @@
         <v>9</v>
       </c>
       <c r="H139">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I139">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <f t="shared" si="19"/>
+        <v>96.632858598413065</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13.7</v>
       </c>
       <c r="B140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.119692666666644</v>
       </c>
       <c r="C140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>316.79538999999966</v>
       </c>
       <c r="D140">
@@ -17314,7 +18033,7 @@
         <v>3.6989643380326922</v>
       </c>
       <c r="F140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G140">
@@ -17322,24 +18041,28 @@
         <v>9</v>
       </c>
       <c r="H140">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I140">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="14"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <f t="shared" si="19"/>
+        <v>96.648674420618434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13.8</v>
       </c>
       <c r="B141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.543923999999969</v>
       </c>
       <c r="C141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>308.15885999999955</v>
       </c>
       <c r="D141">
@@ -17351,7 +18074,7 @@
         <v>3.6800499864539296</v>
       </c>
       <c r="F141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G141">
@@ -17359,24 +18082,28 @@
         <v>9</v>
       </c>
       <c r="H141">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I141">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f t="shared" si="19"/>
+        <v>97.145419577434737</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>13.9</v>
       </c>
       <c r="B142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.968155333333304</v>
       </c>
       <c r="C142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>299.52232999999956</v>
       </c>
       <c r="D142">
@@ -17388,7 +18115,7 @@
         <v>3.6791589598464798</v>
       </c>
       <c r="F142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G142">
@@ -17396,24 +18123,28 @@
         <v>9</v>
       </c>
       <c r="H142">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I142">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <f t="shared" si="19"/>
+        <v>97.168946463492148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14</v>
       </c>
       <c r="B143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.392386666666635</v>
       </c>
       <c r="C143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>290.88579999999956</v>
       </c>
       <c r="D143">
@@ -17425,7 +18156,7 @@
         <v>3.6782684976565623</v>
       </c>
       <c r="F143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G143">
@@ -17433,24 +18164,28 @@
         <v>9</v>
       </c>
       <c r="H143">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I143">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <f t="shared" si="19"/>
+        <v>97.192469834044076</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14.1</v>
       </c>
       <c r="B144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.81661799999997</v>
       </c>
       <c r="C144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>282.24926999999957</v>
       </c>
       <c r="D144">
@@ -17462,7 +18197,7 @@
         <v>3.6773741370931337</v>
       </c>
       <c r="F144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G144">
@@ -17470,24 +18205,28 @@
         <v>9</v>
       </c>
       <c r="H144">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I144">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <f t="shared" si="19"/>
+        <v>97.216107655174383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14.2</v>
       </c>
       <c r="B145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.240849333333305</v>
       </c>
       <c r="C145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>273.61273999999958</v>
       </c>
       <c r="D145">
@@ -17499,7 +18238,7 @@
         <v>3.6764826205385344</v>
       </c>
       <c r="F145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G145">
@@ -17507,24 +18246,28 @@
         <v>9</v>
       </c>
       <c r="H145">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I145">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="14"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <f t="shared" si="19"/>
+        <v>97.239681755284096</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14.3</v>
       </c>
       <c r="B146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.665080666666629</v>
       </c>
       <c r="C146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>264.97620999999947</v>
       </c>
       <c r="D146">
@@ -17536,7 +18279,7 @@
         <v>3.6755850826209122</v>
       </c>
       <c r="F146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G146">
@@ -17544,24 +18287,28 @@
         <v>9</v>
       </c>
       <c r="H146">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I146">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <f t="shared" si="19"/>
+        <v>97.26342662841617</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14.4</v>
       </c>
       <c r="B147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.089311999999964</v>
       </c>
       <c r="C147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>256.33967999999948</v>
       </c>
       <c r="D147">
@@ -17573,7 +18320,7 @@
         <v>3.6746925091986951</v>
       </c>
       <c r="F147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G147">
@@ -17581,24 +18328,28 @@
         <v>9</v>
       </c>
       <c r="H147">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I147">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I147">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <f t="shared" si="19"/>
+        <v>97.287051666251287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14.5</v>
       </c>
       <c r="B148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.513543333333299</v>
       </c>
       <c r="C148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>247.70314999999951</v>
       </c>
       <c r="D148">
@@ -17610,7 +18361,7 @@
         <v>3.6536897300068714</v>
       </c>
       <c r="F148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G148">
@@ -17618,24 +18369,28 @@
         <v>9</v>
       </c>
       <c r="H148">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I148">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I148">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <f t="shared" si="19"/>
+        <v>97.84629413492307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14.6</v>
       </c>
       <c r="B149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.937774666666638</v>
       </c>
       <c r="C149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>239.06661999999955</v>
       </c>
       <c r="D149">
@@ -17647,7 +18402,7 @@
         <v>3.6526400590842378</v>
       </c>
       <c r="F149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G149">
@@ -17655,24 +18410,28 @@
         <v>9</v>
       </c>
       <c r="H149">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I149">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I149">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <f t="shared" si="19"/>
+        <v>97.874412539194921</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14.7</v>
       </c>
       <c r="B150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.362005999999973</v>
       </c>
       <c r="C150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>230.43008999999958</v>
       </c>
       <c r="D150">
@@ -17684,7 +18443,7 @@
         <v>3.6515912373541619</v>
       </c>
       <c r="F150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G150">
@@ -17692,24 +18451,28 @@
         <v>9</v>
       </c>
       <c r="H150">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I150">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="14"/>
         <v>8.6365300000001248</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <f t="shared" si="19"/>
+        <v>97.902524341424993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14.8</v>
       </c>
       <c r="B151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.786237333333297</v>
       </c>
       <c r="C151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>221.79355999999945</v>
       </c>
       <c r="D151">
@@ -17721,7 +18484,7 @@
         <v>3.6505342383998203</v>
       </c>
       <c r="F151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G151">
@@ -17729,24 +18492,28 @@
         <v>9</v>
       </c>
       <c r="H151">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I151">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f t="shared" si="19"/>
+        <v>97.930871662419221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14.9</v>
       </c>
       <c r="B152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.210468666666632</v>
       </c>
       <c r="C152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>213.15702999999948</v>
       </c>
       <c r="D152">
@@ -17758,7 +18525,7 @@
         <v>3.6494829910630804</v>
       </c>
       <c r="F152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5750000000000002</v>
       </c>
       <c r="G152">
@@ -17766,24 +18533,28 @@
         <v>9</v>
       </c>
       <c r="H152">
+        <f t="shared" si="18"/>
+        <v>86.365300000000019</v>
+      </c>
+      <c r="I152">
         <f t="shared" si="16"/>
-        <v>86.365300000000019</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="14"/>
         <v>8.6365299999999721</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <f t="shared" si="19"/>
+        <v>97.959081019271082</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15</v>
       </c>
       <c r="B153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.634699999999969</v>
       </c>
       <c r="C153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>204.52049999999952</v>
       </c>
       <c r="D153">
@@ -17795,7 +18566,7 @@
         <v>3.6296836537363646</v>
       </c>
       <c r="F153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5746836537363649</v>
       </c>
       <c r="G153">
@@ -17803,24 +18574,28 @@
         <v>9</v>
       </c>
       <c r="H153">
+        <f t="shared" si="18"/>
+        <v>86.358150574441851</v>
+      </c>
+      <c r="I153">
         <f t="shared" si="16"/>
-        <v>86.358150574441851</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="14"/>
         <v>8.6358150574441552</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <f t="shared" si="19"/>
+        <v>98.484716431323605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15.1</v>
       </c>
       <c r="B154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.058978996170358</v>
       </c>
       <c r="C154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>195.88468494255537</v>
       </c>
       <c r="D154">
@@ -17832,7 +18607,7 @@
         <v>3.628349368711512</v>
       </c>
       <c r="F154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5733493687115123</v>
       </c>
       <c r="G154">
@@ -17840,24 +18615,28 @@
         <v>9</v>
       </c>
       <c r="H154">
+        <f t="shared" si="18"/>
+        <v>86.327995732880183</v>
+      </c>
+      <c r="I154">
         <f t="shared" si="16"/>
-        <v>86.327995732880183</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="14"/>
         <v>8.6327995732879881</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <f t="shared" si="19"/>
+        <v>98.484159202686399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15.2</v>
       </c>
       <c r="B155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.483459024617826</v>
       </c>
       <c r="C155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>187.25188536926737</v>
       </c>
       <c r="D155">
@@ -17869,7 +18648,7 @@
         <v>3.6270043938586785</v>
       </c>
       <c r="F155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5720043938586787</v>
       </c>
       <c r="G155">
@@ -17877,24 +18656,28 @@
         <v>9</v>
       </c>
       <c r="H155">
+        <f t="shared" si="18"/>
+        <v>86.297599301206148</v>
+      </c>
+      <c r="I155">
         <f t="shared" si="16"/>
-        <v>86.297599301206148</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="14"/>
         <v>8.6297599301207377</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <f t="shared" si="19"/>
+        <v>98.483597094805646</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15.3</v>
       </c>
       <c r="B156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.908141695943108</v>
       </c>
       <c r="C156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>178.62212543914663</v>
       </c>
       <c r="D156">
@@ -17906,7 +18689,7 @@
         <v>3.6256515276121402</v>
       </c>
       <c r="F156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5706515276121404</v>
       </c>
       <c r="G156">
@@ -17914,24 +18697,28 @@
         <v>9</v>
       </c>
       <c r="H156">
+        <f t="shared" si="18"/>
+        <v>86.267024524034383</v>
+      </c>
+      <c r="I156">
         <f t="shared" si="16"/>
-        <v>86.267024524034383</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="14"/>
         <v>8.6267024524034071</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f t="shared" si="19"/>
+        <v>98.483031268142227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15.4</v>
       </c>
       <c r="B157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.333028199116214</v>
       </c>
       <c r="C157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>169.99542298674322</v>
       </c>
       <c r="D157">
@@ -17943,7 +18730,7 @@
         <v>3.6064937194814144</v>
       </c>
       <c r="F157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5514937194814147</v>
       </c>
       <c r="G157">
@@ -17951,24 +18738,28 @@
         <v>9</v>
       </c>
       <c r="H157">
+        <f t="shared" si="18"/>
+        <v>85.834058060279986</v>
+      </c>
+      <c r="I157">
         <f t="shared" si="16"/>
-        <v>85.834058060279986</v>
-      </c>
-      <c r="I157">
-        <f t="shared" si="14"/>
         <v>8.5834058060279688</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <f t="shared" si="19"/>
+        <v>98.474973082501066</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15.5</v>
       </c>
       <c r="B158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.760801145381018</v>
       </c>
       <c r="C158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>161.41201718071525</v>
       </c>
       <c r="D158">
@@ -17980,7 +18771,7 @@
         <v>3.6040972937303315</v>
       </c>
       <c r="F158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5490972937303318</v>
       </c>
       <c r="G158">
@@ -17988,24 +18779,28 @@
         <v>9</v>
       </c>
       <c r="H158">
+        <f t="shared" si="18"/>
+        <v>85.779898838305513</v>
+      </c>
+      <c r="I158">
         <f t="shared" si="16"/>
-        <v>85.779898838305513</v>
-      </c>
-      <c r="I158">
-        <f t="shared" si="14"/>
         <v>8.5779898838305204</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <f t="shared" si="19"/>
+        <v>98.473959066097422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15.6</v>
       </c>
       <c r="B159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.188935153125648</v>
       </c>
       <c r="C159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>152.83402729688473</v>
       </c>
       <c r="D159">
@@ -18017,7 +18812,7 @@
         <v>3.6017055386483756</v>
       </c>
       <c r="F159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5467055386483759</v>
       </c>
       <c r="G159">
@@ -18025,24 +18820,28 @@
         <v>9</v>
       </c>
       <c r="H159">
+        <f t="shared" si="18"/>
+        <v>85.725845173453308</v>
+      </c>
+      <c r="I159">
         <f t="shared" si="16"/>
-        <v>85.725845173453308</v>
-      </c>
-      <c r="I159">
-        <f t="shared" si="14"/>
         <v>8.5725845173452999</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <f t="shared" si="19"/>
+        <v>98.472945680599992</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15.7</v>
       </c>
       <c r="B160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6174295186359622</v>
       </c>
       <c r="C160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>144.26144277953944</v>
       </c>
       <c r="D160">
@@ -18054,7 +18853,7 @@
         <v>3.5992823818535733</v>
       </c>
       <c r="F160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5442823818535736</v>
       </c>
       <c r="G160">
@@ -18062,24 +18861,28 @@
         <v>9</v>
       </c>
       <c r="H160">
+        <f t="shared" si="18"/>
+        <v>85.671081829890767</v>
+      </c>
+      <c r="I160">
         <f t="shared" si="16"/>
-        <v>85.671081829890767</v>
-      </c>
-      <c r="I160">
-        <f t="shared" si="14"/>
         <v>8.5671081829891982</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <f t="shared" si="19"/>
+        <v>98.4719176167646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15.8</v>
       </c>
       <c r="B161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0462889731033496</v>
       </c>
       <c r="C161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>135.69433459655025</v>
       </c>
       <c r="D161">
@@ -18091,7 +18894,7 @@
         <v>3.5755203779733638</v>
       </c>
       <c r="F161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.520520377973364</v>
       </c>
       <c r="G161">
@@ -18099,24 +18902,28 @@
         <v>9</v>
       </c>
       <c r="H161">
+        <f t="shared" si="18"/>
+        <v>85.134060542198029</v>
+      </c>
+      <c r="I161">
         <f t="shared" si="16"/>
-        <v>85.134060542198029</v>
-      </c>
-      <c r="I161">
-        <f t="shared" si="14"/>
         <v>8.5134060542197734</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f t="shared" si="19"/>
+        <v>98.461762367827035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15.9</v>
       </c>
       <c r="B162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4787285694886982</v>
       </c>
       <c r="C162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>127.18092854233048</v>
       </c>
       <c r="D162">
@@ -18128,7 +18935,7 @@
         <v>3.5710843509067556</v>
       </c>
       <c r="F162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5160843509067559</v>
       </c>
       <c r="G162">
@@ -18136,24 +18943,28 @@
         <v>9</v>
       </c>
       <c r="H162">
+        <f t="shared" si="18"/>
+        <v>85.033806330492695</v>
+      </c>
+      <c r="I162">
         <f t="shared" si="16"/>
-        <v>85.033806330492695</v>
-      </c>
-      <c r="I162">
-        <f t="shared" si="14"/>
         <v>8.5033806330492396</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <f t="shared" si="19"/>
+        <v>98.459851557803873</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16</v>
       </c>
       <c r="B163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9118365272854154</v>
       </c>
       <c r="C163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>118.67754790928123</v>
       </c>
       <c r="D163">
@@ -18165,7 +18976,7 @@
         <v>3.5666218013505393</v>
       </c>
       <c r="F163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5116218013505396</v>
       </c>
       <c r="G163">
@@ -18173,24 +18984,28 @@
         <v>9</v>
       </c>
       <c r="H163">
+        <f t="shared" si="18"/>
+        <v>84.932952710522201</v>
+      </c>
+      <c r="I163">
         <f t="shared" si="16"/>
-        <v>84.932952710522201</v>
-      </c>
-      <c r="I163">
-        <f t="shared" si="14"/>
         <v>8.4932952710523413</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <f t="shared" si="19"/>
+        <v>98.457924527372825</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16.100000000000001</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3456168425485924</v>
       </c>
       <c r="C164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>110.18425263822888</v>
       </c>
       <c r="D164">
@@ -18202,7 +19017,7 @@
         <v>3.5621825180220439</v>
       </c>
       <c r="F164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5071825180220442</v>
       </c>
       <c r="G164">
@@ -18210,24 +19025,28 @@
         <v>10</v>
       </c>
       <c r="H164">
+        <f t="shared" si="18"/>
+        <v>84.832624907298211</v>
+      </c>
+      <c r="I164">
         <f t="shared" si="16"/>
-        <v>84.832624907298211</v>
-      </c>
-      <c r="I164">
-        <f t="shared" si="14"/>
         <v>8.4832624907296399</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <f t="shared" si="19"/>
+        <v>98.456002753319353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16.2</v>
       </c>
       <c r="B165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7800660098332823</v>
       </c>
       <c r="C165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>101.70099014749924</v>
       </c>
       <c r="D165">
@@ -18239,7 +19058,7 @@
         <v>3.5343376177509911</v>
       </c>
       <c r="F165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.4793376177509914</v>
       </c>
       <c r="G165">
@@ -18247,24 +19066,28 @@
         <v>10</v>
       </c>
       <c r="H165">
+        <f t="shared" si="18"/>
+        <v>84.203330161172417</v>
+      </c>
+      <c r="I165">
         <f t="shared" si="16"/>
-        <v>84.203330161172417</v>
-      </c>
-      <c r="I165">
-        <f t="shared" si="14"/>
         <v>8.4203330161173611</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <f t="shared" si="19"/>
+        <v>98.443838536427137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16.3</v>
       </c>
       <c r="B166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2187104754254579</v>
       </c>
       <c r="C166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>93.280657131381872</v>
       </c>
       <c r="D166">
@@ -18276,7 +19099,7 @@
         <v>3.5275978054175807</v>
       </c>
       <c r="F166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.472597805417581</v>
       </c>
       <c r="G166">
@@ -18284,24 +19107,28 @@
         <v>10</v>
       </c>
       <c r="H166">
+        <f t="shared" si="18"/>
+        <v>84.051010402437342</v>
+      </c>
+      <c r="I166">
         <f t="shared" si="16"/>
-        <v>84.051010402437342</v>
-      </c>
-      <c r="I166">
-        <f t="shared" si="14"/>
         <v>8.4051010402435544</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f t="shared" si="19"/>
+        <v>98.4408653414079</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16.399999999999999</v>
       </c>
       <c r="B167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6583704060758881</v>
       </c>
       <c r="C167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84.875556091138321</v>
       </c>
       <c r="D167">
@@ -18313,7 +19140,7 @@
         <v>3.4979214133149408</v>
       </c>
       <c r="F167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.4429214133149411</v>
       </c>
       <c r="G167">
@@ -18321,24 +19148,28 @@
         <v>11</v>
       </c>
       <c r="H167">
+        <f t="shared" si="18"/>
+        <v>83.380323940917677</v>
+      </c>
+      <c r="I167">
         <f t="shared" si="16"/>
-        <v>83.380323940917677</v>
-      </c>
-      <c r="I167">
-        <f t="shared" si="14"/>
         <v>8.3380323940918863</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <f t="shared" si="19"/>
+        <v>98.427637631004501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16.5</v>
       </c>
       <c r="B168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1025015798030964</v>
       </c>
       <c r="C168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76.537523697046439</v>
       </c>
       <c r="D168">
@@ -18350,7 +19181,7 @@
         <v>3.4825302164331426</v>
       </c>
       <c r="F168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.4275302164331429</v>
       </c>
       <c r="G168">
@@ -18358,24 +19189,28 @@
         <v>11</v>
       </c>
       <c r="H168">
+        <f t="shared" si="18"/>
+        <v>83.032482891389037</v>
+      </c>
+      <c r="I168">
         <f t="shared" si="16"/>
-        <v>83.032482891389037</v>
-      </c>
-      <c r="I168">
-        <f t="shared" si="14"/>
         <v>8.303248289139022</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <f t="shared" si="19"/>
+        <v>98.420688505717223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16.600000000000001</v>
       </c>
       <c r="B169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5489516938604941</v>
       </c>
       <c r="C169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68.234275407907418</v>
       </c>
       <c r="D169">
@@ -18387,7 +19222,7 @@
         <v>3.4515886833817504</v>
       </c>
       <c r="F169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3965886833817507</v>
       </c>
       <c r="G169">
@@ -18395,24 +19230,28 @@
         <v>12</v>
       </c>
       <c r="H169">
+        <f t="shared" si="18"/>
+        <v>82.333204244427577</v>
+      </c>
+      <c r="I169">
         <f t="shared" si="16"/>
-        <v>82.333204244427577</v>
-      </c>
-      <c r="I169">
-        <f t="shared" si="14"/>
         <v>8.2333204244425815</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <f t="shared" si="19"/>
+        <v>98.406530874759028</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16.7</v>
       </c>
       <c r="B170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000636655643227</v>
       </c>
       <c r="C170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>60.000954983464837</v>
       </c>
       <c r="D170">
@@ -18424,7 +19263,7 @@
         <v>3.3876034605765653</v>
       </c>
       <c r="F170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3326034605765655</v>
       </c>
       <c r="G170">
@@ -18432,24 +19271,28 @@
         <v>12</v>
       </c>
       <c r="H170">
+        <f t="shared" si="18"/>
+        <v>80.887138209030383</v>
+      </c>
+      <c r="I170">
         <f t="shared" si="16"/>
-        <v>80.887138209030383</v>
-      </c>
-      <c r="I170">
-        <f t="shared" si="14"/>
         <v>8.0887138209031537</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <f t="shared" si="19"/>
+        <v>98.376433350595335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>16.8</v>
       </c>
       <c r="B171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4608160775041119</v>
       </c>
       <c r="C171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>51.912241162561685</v>
       </c>
       <c r="D171">
@@ -18461,7 +19304,7 @@
         <v>3.4222319375565404</v>
       </c>
       <c r="F171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3672319375565407</v>
       </c>
       <c r="G171">
@@ -18469,24 +19312,28 @@
         <v>12</v>
       </c>
       <c r="H171">
+        <f t="shared" si="18"/>
+        <v>81.669741788777827</v>
+      </c>
+      <c r="I171">
         <f t="shared" si="16"/>
-        <v>81.669741788777827</v>
-      </c>
-      <c r="I171">
-        <f t="shared" si="14"/>
         <v>8.1669741788776093</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <f t="shared" si="19"/>
+        <v>98.392861705356268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>16.899999999999999</v>
       </c>
       <c r="B172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9163511322456053</v>
       </c>
       <c r="C172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43.745266983684076</v>
       </c>
       <c r="D172">
@@ -18498,7 +19345,7 @@
         <v>3.4750003629702109</v>
       </c>
       <c r="F172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.4200003629702111</v>
       </c>
       <c r="G172">
@@ -18506,24 +19353,28 @@
         <v>11</v>
       </c>
       <c r="H172">
+        <f t="shared" si="18"/>
+        <v>82.862308203126787</v>
+      </c>
+      <c r="I172">
         <f t="shared" si="16"/>
-        <v>82.862308203126787</v>
-      </c>
-      <c r="I172">
-        <f t="shared" si="14"/>
         <v>8.286230820312797</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172">
+        <f t="shared" si="19"/>
+        <v>98.41726635236985</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>17</v>
       </c>
       <c r="B173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3639357442247522</v>
       </c>
       <c r="C173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35.45903616337128</v>
       </c>
       <c r="D173">
@@ -18535,7 +19386,7 @@
         <v>3.3630768057168972</v>
       </c>
       <c r="F173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3080768057168974</v>
       </c>
       <c r="G173">
@@ -18543,24 +19394,28 @@
         <v>13</v>
       </c>
       <c r="H173">
+        <f t="shared" si="18"/>
+        <v>80.332835809201896</v>
+      </c>
+      <c r="I173">
         <f t="shared" si="16"/>
-        <v>80.332835809201896</v>
-      </c>
-      <c r="I173">
-        <f t="shared" si="14"/>
         <v>8.0332835809203029</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <f t="shared" si="19"/>
+        <v>98.36459280660776</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>17.100000000000001</v>
       </c>
       <c r="B174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8283835054967317</v>
       </c>
       <c r="C174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27.425752582450976</v>
       </c>
       <c r="D174">
@@ -18572,7 +19427,7 @@
         <v>3.309404087165996</v>
       </c>
       <c r="F174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2544040871659963</v>
       </c>
       <c r="G174">
@@ -18580,24 +19435,28 @@
         <v>13</v>
       </c>
       <c r="H174">
+        <f t="shared" si="18"/>
+        <v>79.119832369951524</v>
+      </c>
+      <c r="I174">
         <f t="shared" si="16"/>
-        <v>79.119832369951524</v>
-      </c>
-      <c r="I174">
-        <f t="shared" si="14"/>
         <v>7.9119832369949838</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <f t="shared" si="19"/>
+        <v>98.338069375894847</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>17.2</v>
       </c>
       <c r="B175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3009179563637328</v>
       </c>
       <c r="C175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.513769345455991</v>
       </c>
       <c r="D175">
@@ -18609,7 +19468,7 @@
         <v>3.2451402368735378</v>
       </c>
       <c r="F175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1901402368735381</v>
       </c>
       <c r="G175">
@@ -18617,24 +19476,28 @@
         <v>14</v>
       </c>
       <c r="H175">
+        <f t="shared" si="18"/>
+        <v>77.667469353341971</v>
+      </c>
+      <c r="I175">
         <f t="shared" si="16"/>
-        <v>77.667469353341971</v>
-      </c>
-      <c r="I175">
-        <f t="shared" si="14"/>
         <v>7.7667469353343073</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <f t="shared" si="19"/>
+        <v>98.305157990553042</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>17.3</v>
       </c>
       <c r="B176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78313482734144557</v>
       </c>
       <c r="C176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.747022410121684</v>
       </c>
       <c r="D176">
@@ -18646,7 +19509,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F176" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G176" t="e">
@@ -18654,24 +19517,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H176" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I176" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I176" t="e">
-        <f t="shared" si="14"/>
+      <c r="J176" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17.399999999999999</v>
       </c>
       <c r="B177" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C177" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D177" t="e">
@@ -18683,7 +19550,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F177" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G177" t="e">
@@ -18691,24 +19558,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H177" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I177" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I177" t="e">
-        <f t="shared" si="14"/>
+      <c r="J177" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17.5</v>
       </c>
       <c r="B178" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C178" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D178" t="e">
@@ -18720,7 +19591,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F178" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G178" t="e">
@@ -18728,24 +19599,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H178" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I178" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I178" t="e">
-        <f t="shared" si="14"/>
+      <c r="J178" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17.600000000000001</v>
       </c>
       <c r="B179" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C179" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D179" t="e">
@@ -18757,7 +19632,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F179" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G179" t="e">
@@ -18765,24 +19640,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H179" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I179" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I179" t="e">
-        <f t="shared" si="14"/>
+      <c r="J179" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17.7</v>
       </c>
       <c r="B180" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C180" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D180" t="e">
@@ -18794,7 +19673,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F180" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G180" t="e">
@@ -18802,24 +19681,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H180" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I180" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I180" t="e">
-        <f t="shared" si="14"/>
+      <c r="J180" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>17.8</v>
       </c>
       <c r="B181" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C181" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D181" t="e">
@@ -18831,7 +19714,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F181" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G181" t="e">
@@ -18839,24 +19722,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H181" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I181" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I181" t="e">
-        <f t="shared" si="14"/>
+      <c r="J181" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>17.899999999999999</v>
       </c>
       <c r="B182" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C182" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D182" t="e">
@@ -18868,7 +19755,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F182" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G182" t="e">
@@ -18876,24 +19763,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="H182" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I182" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I182" t="e">
-        <f t="shared" si="14"/>
+      <c r="J182" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>18</v>
       </c>
       <c r="B183" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="C183" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D183" t="e">
@@ -18905,7 +19796,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F183" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G183" t="e">
@@ -18913,11 +19804,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="H183" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I183" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I183" t="e">
-        <f t="shared" si="14"/>
+      <c r="J183" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -18934,293 +19829,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B4C637-7337-41E0-8D89-81CEB02E694E}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6D7A82-737B-4234-B5EF-1AD368197F76}">
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <f>0.2*B2</f>
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <f>0.2*C2</f>
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <f>0.2*D2</f>
+        <v>400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>1200/B3</f>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>1200/C3</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>1200/D3</f>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>5.6</v>
+      </c>
+      <c r="C5">
+        <v>3.9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <f>1200/B5</f>
+        <v>214.28571428571431</v>
+      </c>
+      <c r="C6">
+        <f>1200/C5</f>
+        <v>307.69230769230768</v>
+      </c>
+      <c r="D6">
+        <f>1200/D5</f>
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>1200/B7</f>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="C8">
+        <f>1200/C7</f>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="D8">
+        <f>1200/D7</f>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <f>B8-B5</f>
+        <v>20.486956521739131</v>
+      </c>
+      <c r="C9">
+        <f>C8-C5</f>
+        <v>22.18695652173913</v>
+      </c>
+      <c r="D9">
+        <f>D8-D5</f>
+        <v>23.086956521739129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1">
-        <v>160</v>
-      </c>
-      <c r="G1">
-        <f>F1</f>
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <f>(F4-F3)*(F1/F3)</f>
-        <v>300.8</v>
-      </c>
-      <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.15095259821530899</v>
-      </c>
-      <c r="B3">
-        <v>12.0754716981132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>1.25</v>
-      </c>
-      <c r="G3">
-        <f>F3</f>
-        <v>1.25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3.1698203054593499</v>
-      </c>
-      <c r="B4">
-        <v>25.9622595445164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>3.6</v>
-      </c>
-      <c r="G4">
-        <f>(G2+G1)*G3/G1</f>
-        <v>3.59375</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7.2452871038122302</v>
-      </c>
-      <c r="B5">
-        <v>40.1509295769457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>11.4717065003804</v>
-      </c>
-      <c r="B6">
-        <v>54.6415048275354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>16.754724988057401</v>
-      </c>
-      <c r="B7">
-        <v>71.245278412440996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>20.0754748595993</v>
-      </c>
-      <c r="B8">
-        <v>79.396212595813594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>25.0566111829785</v>
-      </c>
-      <c r="B9">
-        <v>86.943382407134393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>31.0943465974666</v>
-      </c>
-      <c r="B10">
-        <v>94.490552218455207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>39.3962327923877</v>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>102.037722029775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>44.679251280064697</v>
+        <f>B10+B5</f>
+        <v>25.6</v>
+      </c>
+      <c r="C11">
+        <f>C10+C5</f>
+        <v>25.9</v>
+      </c>
+      <c r="D11">
+        <f>D10+D5</f>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>106.566023916568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>50.716986694552801</v>
-      </c>
-      <c r="B13">
-        <v>111.999995393573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>59.773589816284897</v>
-      </c>
-      <c r="B14">
-        <v>121.660363539209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>67.018865404030706</v>
-      </c>
-      <c r="B15">
-        <v>129.20753335053001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>74.113199909627596</v>
-      </c>
-      <c r="B16">
-        <v>136.150938789799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>82.716991300979302</v>
-      </c>
-      <c r="B17">
-        <v>144.30187297317201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>88.150939354738895</v>
-      </c>
-      <c r="B18">
-        <v>148.83017485996399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>94.188674769227006</v>
-      </c>
-      <c r="B19">
-        <v>154.26414633696899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>101.283009274823</v>
-      </c>
-      <c r="B20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>105.81131083568999</v>
-      </c>
-      <c r="B21">
-        <v>163.320750110554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>111.54716408588</v>
-      </c>
-      <c r="B22">
-        <v>166.94338240713401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>117.584899500368</v>
-      </c>
-      <c r="B23">
-        <v>170.867919921875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>124.679234005965</v>
-      </c>
-      <c r="B24">
-        <v>174.49054070238699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>132.52830847050501</v>
-      </c>
-      <c r="B25">
-        <v>179.01884258918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>141.73584115832</v>
-      </c>
-      <c r="B26">
-        <v>182.94339161998801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>148.830175663917</v>
-      </c>
-      <c r="B27">
-        <v>186.56601240050099</v>
+        <f>1200/B11</f>
+        <v>46.875</v>
+      </c>
+      <c r="C12">
+        <f>1200/C11</f>
+        <v>46.332046332046332</v>
+      </c>
+      <c r="D12">
+        <f>1200/D11</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B27">
-    <sortCondition ref="A1:A27"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>